--- a/static/assemblies.xlsx
+++ b/static/assemblies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\WEB\Game-analog-searcher\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB70ABA-BF18-43CE-B16C-47670B892D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1597563-5949-42BE-9833-D31A34CDE3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9030" yWindow="3780" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5910" yWindow="3660" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assemblies" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>16GB</t>
   </si>
   <si>
-    <t>269 790 ₽</t>
-  </si>
-  <si>
     <t>GeForce RTX 3070</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>AMD Ryzen 3 3200G</t>
   </si>
   <si>
-    <t>67 900 ₽</t>
-  </si>
-  <si>
     <t>GeForce GTX 1650 Ti</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>4GB</t>
   </si>
   <si>
-    <t>25 990 ₽</t>
-  </si>
-  <si>
     <t>Ryzen 3 4300U with Radeon Graphics</t>
   </si>
   <si>
@@ -91,18 +82,12 @@
     <t>AMD Ryzen 5 3600X</t>
   </si>
   <si>
-    <t>199 500 ₽</t>
-  </si>
-  <si>
     <t>GeForce RTX 3060 Ti</t>
   </si>
   <si>
     <t>EDELWEISS PROTON</t>
   </si>
   <si>
-    <t>116 320 ₽</t>
-  </si>
-  <si>
     <t>GeForce GTX 1660 SUPER</t>
   </si>
   <si>
@@ -115,16 +100,10 @@
     <t>8GB</t>
   </si>
   <si>
-    <t>75 960 ₽</t>
-  </si>
-  <si>
     <t>GeForce GTX 1650 SUPER</t>
   </si>
   <si>
     <t>EDELWEISS CRUSADER</t>
-  </si>
-  <si>
-    <t>99 060 ₽</t>
   </si>
   <si>
     <t>https</t>
@@ -995,7 +974,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,155 +1012,155 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>269790</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
       </c>
       <c r="F2">
         <v>5142.7879999999996</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
+      <c r="D3">
+        <v>67900</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>1880.38</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4">
+        <v>25990</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
       </c>
       <c r="F4">
         <v>1772</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
+      <c r="D5">
+        <v>199500</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>4082.3440000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
+      <c r="D6">
+        <v>116320</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <v>4077.3319999999999</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>75960</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F7">
         <v>3444.5630000000001</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>99060</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F8">
         <v>3445.3319999999999</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/static/assemblies.xlsx
+++ b/static/assemblies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\WEB\Game-analog-searcher\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1597563-5949-42BE-9833-D31A34CDE3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E20B4D1-F6E9-4736-A310-89E06BAAA497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5910" yWindow="3660" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>name</t>
   </si>
@@ -106,14 +106,32 @@
     <t>EDELWEISS CRUSADER</t>
   </si>
   <si>
-    <t>https</t>
+    <t>https://hyperpc.ru/images/product/gaming-pc/content_category/compare/compare-hyperpc-gaming-x7.jpg</t>
+  </si>
+  <si>
+    <t>https://epix.ru/images/product/gaming-pc/infinity/main/epix-infinity-teaser.jpg</t>
+  </si>
+  <si>
+    <t>https://technorating.ru/wp-content/uploads/2021/03/Screenshot_126-1.png</t>
+  </si>
+  <si>
+    <t>https://epix.ru/images/product/gaming-pc/delta/main/epix-delta-teaser.jpg</t>
+  </si>
+  <si>
+    <t>https://edelws.ru/upload/iblock/4c5/4c5ea94fa78dcc3974c539a68d75b9e9.png</t>
+  </si>
+  <si>
+    <t>https://avatars.mds.yandex.net/get-altay/2761244/2a00000170433ee634a2a2575dad29b01481/XXL</t>
+  </si>
+  <si>
+    <t>https://edelws.ru/upload/iblock/877/87765a83261e0a1695800fdab509dc85.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +262,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -546,7 +572,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -589,11 +615,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -621,6 +649,7 @@
     <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Гиперссылка" xfId="42" builtinId="8"/>
     <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
@@ -974,7 +1003,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1050,7 @@
       <c r="F2">
         <v>5142.7879999999996</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1044,8 +1073,8 @@
       <c r="F3">
         <v>1880.38</v>
       </c>
-      <c r="G3" t="s">
-        <v>28</v>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1067,8 +1096,8 @@
       <c r="F4">
         <v>1772</v>
       </c>
-      <c r="G4" t="s">
-        <v>28</v>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1090,8 +1119,8 @@
       <c r="F5">
         <v>4082.3440000000001</v>
       </c>
-      <c r="G5" t="s">
-        <v>28</v>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1113,8 +1142,8 @@
       <c r="F6">
         <v>4077.3319999999999</v>
       </c>
-      <c r="G6" t="s">
-        <v>28</v>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1136,8 +1165,8 @@
       <c r="F7">
         <v>3444.5630000000001</v>
       </c>
-      <c r="G7" t="s">
-        <v>28</v>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1159,11 +1188,20 @@
       <c r="F8">
         <v>3445.3319999999999</v>
       </c>
-      <c r="G8" t="s">
-        <v>28</v>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{32471441-F394-49FD-88AF-FD1EEECF0184}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{53145498-63ED-4543-B93A-62DC5DD42902}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{6B910484-2CA6-4014-B421-3A7334CBB938}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{DE22DC59-6006-41BF-94CC-FD1401A994D3}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{3E679467-702C-4272-A44F-8AA5786E7A59}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{2A2D74F7-29AC-4A34-96BB-36024477B2DD}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{A41AC314-2002-4997-A176-615D34E40FD4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>